--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_54.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2451923076923077</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1517241379310345</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(33.698526, 40.885102)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:14.840000', '0:00:22.200000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1821946169772257</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(45.72, 49.9)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(15.06, 20.56)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:16.200000', '0:00:19.540000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:08.040000', '0:01:19')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0481580572134184</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'F']]</t>
-        </is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj(*1)/5', 'G', 'G']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(133.33, 136.91)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.454596, 24.259614)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:09.162102', '0:00:15.791400')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1302083333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'Ab:aug', 'C/5']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2863636363636364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:min', 'C:aug', 'E']]</t>
+          <t>[['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(27.190328, 32.600578)]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(50.521893, 56.675182)]</t>
+          <t>[('0:00:48.001000', '0:00:54.307000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_33</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08571428571428572</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(100.4, 108.82), (18.0, 26.46)]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(98.06, 105.6), (134.22, 139.56)]</t>
+          <t>[('0:00:35.080113', '0:00:43.578616')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:02.252358', '0:00:05.805011')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1953781512605042</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C'], ['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_73</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.217687074829932</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(89.739, 104.707), (0.279, 16.531)]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.30541, 12.800013), (11.070127, 13.723731)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.779614, 7.239387)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(56.111043, 71.192403)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98), (16.26, 19.34)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(130.84, 135.98), (2.64, 7.3)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:19.520000', '0:00:23.120000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5052631578947369</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.425</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.634761, 19.597664)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0354915354915355</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb', 'Eb:7']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.18, 14.12)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(15.07, 18.18)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_212</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(54.78, 57.52)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(23.46, 26.48)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2375</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(229.44, 238.32)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1410105757931845</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.8, 20.08), (18.48, 21.42)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(243.02, 244.86), (200.58, 201.82)]</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(142.14, 147.86)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.465952, 6.886543)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_61</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1174089068825911</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'C#', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(24.387324, 27.452358), (3.744784, 6.774988)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
